--- a/public/upload/data_3/NON-vien/kho non vien2019.xlsx
+++ b/public/upload/data_3/NON-vien/kho non vien2019.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.100.247\pmp documents\QA\13_Qualifi_Requali Protocol &amp; Report\1_NH Site\Non Betalactam\5 - Quali. &amp; Calib. Database\7 - PHÂN TÍCH XU HƯỚNG\VI SINH\VI SINH NON VIEN\NĂM 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pmp\public\upload\data_3\NON-vien\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8724" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8730" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="26305_P" sheetId="3" r:id="rId1"/>
@@ -86,14 +86,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -117,7 +117,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -350,6 +350,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -372,7 +373,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="vi-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -443,8 +444,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="499784432"/>
-        <c:axId val="499778448"/>
+        <c:axId val="153716008"/>
+        <c:axId val="153715224"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -772,6 +773,69 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -801,8 +865,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499784432"/>
-        <c:axId val="499778448"/>
+        <c:axId val="153716008"/>
+        <c:axId val="153715224"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1183,11 +1247,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499775184"/>
-        <c:axId val="499774640"/>
+        <c:axId val="154655704"/>
+        <c:axId val="153716400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="499784432"/>
+        <c:axId val="153716008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,7 +1311,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="vi-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1282,10 +1346,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="vi-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499778448"/>
+        <c:crossAx val="153715224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1293,7 +1357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="499778448"/>
+        <c:axId val="153715224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -1339,16 +1403,16 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="vi-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499784432"/>
+        <c:crossAx val="153716008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="499774640"/>
+        <c:axId val="153716400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1358,12 +1422,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499775184"/>
+        <c:crossAx val="154655704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="499775184"/>
+        <c:axId val="154655704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +1487,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="vi-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1431,7 +1495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499774640"/>
+        <c:crossAx val="153716400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1451,6 +1515,7 @@
         <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1473,7 +1538,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="vi-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1508,7 +1573,7 @@
           <a:latin typeface="Arial (Body)"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="vi-VN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1560,6 +1625,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1582,7 +1648,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="vi-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1653,8 +1719,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="499775728"/>
-        <c:axId val="499778992"/>
+        <c:axId val="154650216"/>
+        <c:axId val="154656096"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1982,6 +2048,69 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2011,8 +2140,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499775728"/>
-        <c:axId val="499778992"/>
+        <c:axId val="154650216"/>
+        <c:axId val="154656096"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2423,11 +2552,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499770288"/>
-        <c:axId val="499769744"/>
+        <c:axId val="154653352"/>
+        <c:axId val="154655312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="499775728"/>
+        <c:axId val="154650216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,7 +2616,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="vi-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2522,10 +2651,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="vi-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499778992"/>
+        <c:crossAx val="154656096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2533,7 +2662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="499778992"/>
+        <c:axId val="154656096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2579,16 +2708,16 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="vi-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499775728"/>
+        <c:crossAx val="154650216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="499769744"/>
+        <c:axId val="154655312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2598,12 +2727,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499770288"/>
+        <c:crossAx val="154653352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="499770288"/>
+        <c:axId val="154653352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2663,7 +2792,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="vi-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2671,7 +2800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499769744"/>
+        <c:crossAx val="154655312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2691,6 +2820,7 @@
         <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2713,7 +2843,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="vi-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2748,7 +2878,7 @@
           <a:latin typeface="Arial (Body)"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="vi-VN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2823,7 +2953,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="vi-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2894,8 +3024,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="499772464"/>
-        <c:axId val="499781712"/>
+        <c:axId val="154654920"/>
+        <c:axId val="154649040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3223,6 +3353,69 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="22">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3252,8 +3445,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499772464"/>
-        <c:axId val="499781712"/>
+        <c:axId val="154654920"/>
+        <c:axId val="154649040"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3664,11 +3857,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499776272"/>
-        <c:axId val="499779536"/>
+        <c:axId val="154649824"/>
+        <c:axId val="154654136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="499772464"/>
+        <c:axId val="154654920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3728,7 +3921,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="vi-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3763,10 +3956,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="vi-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499781712"/>
+        <c:crossAx val="154649040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3774,7 +3967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="499781712"/>
+        <c:axId val="154649040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -3821,16 +4014,16 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="vi-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499772464"/>
+        <c:crossAx val="154654920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="499779536"/>
+        <c:axId val="154654136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3840,12 +4033,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499776272"/>
+        <c:crossAx val="154649824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="499776272"/>
+        <c:axId val="154649824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3905,7 +4098,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="vi-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3913,7 +4106,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499779536"/>
+        <c:crossAx val="154654136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3956,7 +4149,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="vi-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3991,7 +4184,7 @@
           <a:latin typeface="Arial (Body)"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="vi-VN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4063,7 +4256,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="vi-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4131,8 +4324,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="499777360"/>
-        <c:axId val="499782800"/>
+        <c:axId val="154650608"/>
+        <c:axId val="154651000"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4322,6 +4515,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4345,8 +4559,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499777360"/>
-        <c:axId val="499782800"/>
+        <c:axId val="154650608"/>
+        <c:axId val="154651000"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4559,11 +4773,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499780624"/>
-        <c:axId val="499777904"/>
+        <c:axId val="154651784"/>
+        <c:axId val="154651392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="499777360"/>
+        <c:axId val="154650608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4623,7 +4837,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="vi-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4658,10 +4872,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="vi-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499782800"/>
+        <c:crossAx val="154651000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4669,7 +4883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="499782800"/>
+        <c:axId val="154651000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -4715,16 +4929,16 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="vi-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499777360"/>
+        <c:crossAx val="154650608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="499777904"/>
+        <c:axId val="154651392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4734,12 +4948,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499780624"/>
+        <c:crossAx val="154651784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="499780624"/>
+        <c:axId val="154651784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4799,7 +5013,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="vi-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4807,7 +5021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499777904"/>
+        <c:crossAx val="154651392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4850,7 +5064,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="vi-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4885,7 +5099,7 @@
           <a:latin typeface="Arial (Body)"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="vi-VN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4961,7 +5175,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="vi-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5029,8 +5243,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="372600288"/>
-        <c:axId val="372591584"/>
+        <c:axId val="154652960"/>
+        <c:axId val="154653744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5220,6 +5434,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
@@ -5243,8 +5478,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="372600288"/>
-        <c:axId val="372591584"/>
+        <c:axId val="154652960"/>
+        <c:axId val="154653744"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5457,11 +5692,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="561471104"/>
-        <c:axId val="561468384"/>
+        <c:axId val="168511520"/>
+        <c:axId val="154654528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="372600288"/>
+        <c:axId val="154652960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5521,7 +5756,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="vi-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5556,10 +5791,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="vi-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372591584"/>
+        <c:crossAx val="154653744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -5567,7 +5802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="372591584"/>
+        <c:axId val="154653744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5614,16 +5849,16 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="vi-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372600288"/>
+        <c:crossAx val="154652960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561468384"/>
+        <c:axId val="154654528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5633,12 +5868,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="561471104"/>
+        <c:crossAx val="168511520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="561471104"/>
+        <c:axId val="168511520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5698,7 +5933,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="vi-VN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5706,7 +5941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="561468384"/>
+        <c:crossAx val="154654528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5749,7 +5984,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="vi-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5784,7 +6019,7 @@
           <a:latin typeface="Arial (Body)"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="vi-VN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8960,16 +9195,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.09765625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -8987,13 +9222,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>43118</v>
       </c>
       <c r="B2" s="17">
         <v>0</v>
       </c>
+      <c r="C2" s="17">
+        <v>0</v>
+      </c>
       <c r="E2">
         <v>20</v>
       </c>
@@ -9001,13 +9239,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>43154</v>
       </c>
       <c r="B3" s="18">
         <v>0</v>
       </c>
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
       <c r="E3">
         <v>20</v>
       </c>
@@ -9015,13 +9256,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>43180</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
       </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
       <c r="E4">
         <v>20</v>
       </c>
@@ -9029,13 +9273,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>43209</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
       </c>
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
       <c r="E5">
         <v>20</v>
       </c>
@@ -9043,13 +9290,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>43241</v>
       </c>
       <c r="B6" s="18">
         <v>3</v>
       </c>
+      <c r="C6" s="18">
+        <v>3</v>
+      </c>
       <c r="E6">
         <v>20</v>
       </c>
@@ -9057,13 +9307,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>43272</v>
       </c>
       <c r="B7" s="18">
         <v>1</v>
       </c>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
       <c r="E7">
         <v>20</v>
       </c>
@@ -9071,13 +9324,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>43301</v>
       </c>
       <c r="B8" s="18">
         <v>1</v>
       </c>
+      <c r="C8" s="18">
+        <v>1</v>
+      </c>
       <c r="E8">
         <v>20</v>
       </c>
@@ -9085,13 +9341,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>43335</v>
       </c>
       <c r="B9" s="18">
         <v>1</v>
       </c>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
       <c r="E9">
         <v>20</v>
       </c>
@@ -9099,13 +9358,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>43365</v>
       </c>
       <c r="B10" s="18">
         <v>4</v>
       </c>
+      <c r="C10" s="18">
+        <v>4</v>
+      </c>
       <c r="E10">
         <v>20</v>
       </c>
@@ -9113,13 +9375,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>43396</v>
       </c>
       <c r="B11" s="18">
         <v>0</v>
       </c>
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
       <c r="E11">
         <v>20</v>
       </c>
@@ -9127,13 +9392,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>43427</v>
       </c>
       <c r="B12" s="18">
         <v>0</v>
       </c>
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
       <c r="E12">
         <v>20</v>
       </c>
@@ -9141,13 +9409,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>43459</v>
       </c>
       <c r="B13" s="18">
         <v>0</v>
       </c>
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
       <c r="E13">
         <v>20</v>
       </c>
@@ -9155,20 +9426,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>43488</v>
       </c>
       <c r="B15" s="25">
         <v>0</v>
       </c>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
       <c r="E15">
         <v>20</v>
       </c>
@@ -9176,13 +9451,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>43518</v>
       </c>
       <c r="B16" s="26">
         <v>0</v>
       </c>
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
       <c r="E16">
         <v>20</v>
       </c>
@@ -9190,13 +9468,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>43547</v>
       </c>
       <c r="B17" s="26">
         <v>1</v>
       </c>
+      <c r="C17" s="26">
+        <v>1</v>
+      </c>
       <c r="E17">
         <v>20</v>
       </c>
@@ -9204,29 +9485,38 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>43580</v>
       </c>
       <c r="B18" s="26">
         <v>0</v>
       </c>
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>43608</v>
       </c>
       <c r="B19" s="26">
         <v>0</v>
       </c>
+      <c r="C19" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>43640</v>
       </c>
       <c r="B20" s="26">
         <v>3</v>
       </c>
+      <c r="C20" s="26">
+        <v>3</v>
+      </c>
       <c r="E20">
         <v>20</v>
       </c>
@@ -9234,29 +9524,38 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>43670</v>
       </c>
       <c r="B21" s="26">
         <v>0</v>
       </c>
+      <c r="C21" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>43700</v>
       </c>
       <c r="B22" s="26">
         <v>0</v>
       </c>
+      <c r="C22" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>43731</v>
       </c>
       <c r="B23" s="26">
         <v>0</v>
       </c>
+      <c r="C23" s="26">
+        <v>0</v>
+      </c>
       <c r="E23">
         <v>20</v>
       </c>
@@ -9264,7 +9563,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>43761</v>
       </c>
@@ -9279,7 +9578,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>43791</v>
       </c>
@@ -9295,7 +9594,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>43824</v>
       </c>
@@ -9341,15 +9640,15 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B23"/>
+      <selection activeCell="C2" sqref="C2:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.09765625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -9367,13 +9666,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>43118</v>
       </c>
       <c r="B2" s="17">
         <v>1</v>
       </c>
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
       <c r="E2">
         <v>40</v>
       </c>
@@ -9381,13 +9683,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>43154</v>
       </c>
       <c r="B3" s="18">
         <v>0</v>
       </c>
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
       <c r="E3">
         <v>40</v>
       </c>
@@ -9395,13 +9700,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>43180</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
       </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
       <c r="E4">
         <v>40</v>
       </c>
@@ -9409,13 +9717,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>43209</v>
       </c>
       <c r="B5" s="18">
         <v>8</v>
       </c>
+      <c r="C5" s="18">
+        <v>8</v>
+      </c>
       <c r="E5">
         <v>40</v>
       </c>
@@ -9423,13 +9734,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>43241</v>
       </c>
       <c r="B6" s="18">
         <v>0</v>
       </c>
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
       <c r="E6">
         <v>40</v>
       </c>
@@ -9437,13 +9751,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>43272</v>
       </c>
       <c r="B7" s="18">
         <v>0</v>
       </c>
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
       <c r="E7">
         <v>40</v>
       </c>
@@ -9451,13 +9768,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>43301</v>
       </c>
       <c r="B8" s="18">
         <v>5</v>
       </c>
+      <c r="C8" s="18">
+        <v>5</v>
+      </c>
       <c r="E8">
         <v>40</v>
       </c>
@@ -9465,13 +9785,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>43335</v>
       </c>
       <c r="B9" s="18">
         <v>1</v>
       </c>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
       <c r="E9">
         <v>40</v>
       </c>
@@ -9479,13 +9802,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>43365</v>
       </c>
       <c r="B10" s="18">
         <v>0</v>
       </c>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
       <c r="E10">
         <v>40</v>
       </c>
@@ -9493,13 +9819,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>43396</v>
       </c>
       <c r="B11" s="18">
         <v>1</v>
       </c>
+      <c r="C11" s="18">
+        <v>1</v>
+      </c>
       <c r="E11">
         <v>40</v>
       </c>
@@ -9507,13 +9836,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>43427</v>
       </c>
       <c r="B12" s="18">
         <v>0</v>
       </c>
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
       <c r="E12">
         <v>40</v>
       </c>
@@ -9521,13 +9853,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>43459</v>
       </c>
       <c r="B13" s="18">
         <v>0</v>
       </c>
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
       <c r="E13">
         <v>40</v>
       </c>
@@ -9535,9 +9870,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14">
         <v>1000</v>
       </c>
@@ -9548,13 +9884,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>43488</v>
       </c>
       <c r="B15" s="25">
         <v>4</v>
       </c>
+      <c r="C15" s="25">
+        <v>4</v>
+      </c>
       <c r="E15">
         <v>40</v>
       </c>
@@ -9562,13 +9901,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>43518</v>
       </c>
       <c r="B16" s="26">
         <v>0</v>
       </c>
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
       <c r="E16">
         <v>40</v>
       </c>
@@ -9576,13 +9918,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>43547</v>
       </c>
       <c r="B17" s="26">
         <v>2</v>
       </c>
+      <c r="C17" s="26">
+        <v>2</v>
+      </c>
       <c r="E17">
         <v>40</v>
       </c>
@@ -9590,13 +9935,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>43580</v>
       </c>
       <c r="B18" s="26">
         <v>0</v>
       </c>
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
       <c r="E18">
         <v>40</v>
       </c>
@@ -9604,13 +9952,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>43608</v>
       </c>
       <c r="B19" s="26">
         <v>0</v>
       </c>
+      <c r="C19" s="26">
+        <v>0</v>
+      </c>
       <c r="E19">
         <v>40</v>
       </c>
@@ -9618,13 +9969,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>43640</v>
       </c>
       <c r="B20" s="26">
         <v>3</v>
       </c>
+      <c r="C20" s="26">
+        <v>3</v>
+      </c>
       <c r="E20">
         <v>40</v>
       </c>
@@ -9632,13 +9986,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>43670</v>
       </c>
       <c r="B21" s="26">
         <v>4</v>
       </c>
+      <c r="C21" s="26">
+        <v>4</v>
+      </c>
       <c r="E21">
         <v>40</v>
       </c>
@@ -9646,13 +10003,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>43700</v>
       </c>
       <c r="B22" s="26">
         <v>7</v>
       </c>
+      <c r="C22" s="26">
+        <v>7</v>
+      </c>
       <c r="E22">
         <v>40</v>
       </c>
@@ -9660,11 +10020,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>43731</v>
       </c>
       <c r="B23" s="26">
+        <v>0</v>
+      </c>
+      <c r="C23" s="26">
         <v>0</v>
       </c>
       <c r="E23">
@@ -9750,16 +10113,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.09765625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -9777,13 +10140,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>43118</v>
       </c>
       <c r="B2" s="17">
         <v>19</v>
       </c>
+      <c r="C2" s="17">
+        <v>19</v>
+      </c>
       <c r="E2">
         <v>10</v>
       </c>
@@ -9791,13 +10157,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>43154</v>
       </c>
       <c r="B3" s="18">
         <v>0</v>
       </c>
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
       <c r="E3">
         <v>10</v>
       </c>
@@ -9805,13 +10174,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>43180</v>
       </c>
       <c r="B4" s="18">
         <v>4</v>
       </c>
+      <c r="C4" s="18">
+        <v>4</v>
+      </c>
       <c r="E4">
         <v>10</v>
       </c>
@@ -9819,13 +10191,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>43209</v>
       </c>
       <c r="B5" s="18">
         <v>8</v>
       </c>
+      <c r="C5" s="18">
+        <v>8</v>
+      </c>
       <c r="E5">
         <v>10</v>
       </c>
@@ -9833,13 +10208,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>43241</v>
       </c>
       <c r="B6" s="18">
         <v>9</v>
       </c>
+      <c r="C6" s="18">
+        <v>9</v>
+      </c>
       <c r="E6">
         <v>10</v>
       </c>
@@ -9847,13 +10225,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>43272</v>
       </c>
       <c r="B7" s="18">
         <v>0</v>
       </c>
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
       <c r="E7">
         <v>10</v>
       </c>
@@ -9861,13 +10242,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>43301</v>
       </c>
       <c r="B8" s="18">
         <v>1</v>
       </c>
+      <c r="C8" s="18">
+        <v>1</v>
+      </c>
       <c r="E8">
         <v>10</v>
       </c>
@@ -9875,13 +10259,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>43335</v>
       </c>
       <c r="B9" s="18">
         <v>15</v>
       </c>
+      <c r="C9" s="18">
+        <v>15</v>
+      </c>
       <c r="E9">
         <v>10</v>
       </c>
@@ -9889,13 +10276,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>43365</v>
       </c>
       <c r="B10" s="18">
         <v>0</v>
       </c>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
       <c r="E10">
         <v>10</v>
       </c>
@@ -9903,13 +10293,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>43396</v>
       </c>
       <c r="B11" s="18">
         <v>0</v>
       </c>
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
       <c r="E11">
         <v>10</v>
       </c>
@@ -9917,13 +10310,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>43427</v>
       </c>
       <c r="B12" s="18">
         <v>0</v>
       </c>
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
       <c r="E12">
         <v>10</v>
       </c>
@@ -9931,13 +10327,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>43459</v>
       </c>
       <c r="B13" s="18">
         <v>1</v>
       </c>
+      <c r="C13" s="18">
+        <v>1</v>
+      </c>
       <c r="E13">
         <v>10</v>
       </c>
@@ -9945,9 +10344,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14">
         <v>1000</v>
       </c>
@@ -9958,13 +10358,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>43488</v>
       </c>
       <c r="B15" s="25">
         <v>2</v>
       </c>
+      <c r="C15" s="25">
+        <v>2</v>
+      </c>
       <c r="E15">
         <v>10</v>
       </c>
@@ -9972,13 +10375,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>43518</v>
       </c>
       <c r="B16" s="26">
         <v>1</v>
       </c>
+      <c r="C16" s="26">
+        <v>1</v>
+      </c>
       <c r="E16">
         <v>10</v>
       </c>
@@ -9986,13 +10392,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>43547</v>
       </c>
       <c r="B17" s="26">
         <v>9</v>
       </c>
+      <c r="C17" s="26">
+        <v>9</v>
+      </c>
       <c r="E17">
         <v>10</v>
       </c>
@@ -10000,13 +10409,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>43580</v>
       </c>
       <c r="B18" s="26">
         <v>0</v>
       </c>
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
       <c r="E18">
         <v>10</v>
       </c>
@@ -10014,13 +10426,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>43608</v>
       </c>
       <c r="B19" s="26">
         <v>0</v>
       </c>
+      <c r="C19" s="26">
+        <v>0</v>
+      </c>
       <c r="E19">
         <v>10</v>
       </c>
@@ -10028,13 +10443,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>43640</v>
       </c>
       <c r="B20" s="26">
         <v>8</v>
       </c>
+      <c r="C20" s="26">
+        <v>8</v>
+      </c>
       <c r="E20">
         <v>10</v>
       </c>
@@ -10042,13 +10460,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>43670</v>
       </c>
       <c r="B21" s="26">
         <v>4</v>
       </c>
+      <c r="C21" s="26">
+        <v>4</v>
+      </c>
       <c r="E21">
         <v>10</v>
       </c>
@@ -10056,13 +10477,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>43700</v>
       </c>
       <c r="B22" s="26">
         <v>0</v>
       </c>
+      <c r="C22" s="26">
+        <v>0</v>
+      </c>
       <c r="E22">
         <v>10</v>
       </c>
@@ -10070,11 +10494,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>43731</v>
       </c>
       <c r="B23" s="26">
+        <v>0</v>
+      </c>
+      <c r="C23" s="26">
         <v>0</v>
       </c>
       <c r="E23">
@@ -10160,16 +10587,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.09765625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -10187,13 +10614,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>43122</v>
       </c>
       <c r="B2" s="17">
         <v>0</v>
       </c>
+      <c r="C2" s="17">
+        <v>0</v>
+      </c>
       <c r="E2">
         <v>20</v>
       </c>
@@ -10201,13 +10631,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>43214</v>
       </c>
       <c r="B3" s="18">
         <v>0</v>
       </c>
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
       <c r="E3">
         <v>20</v>
       </c>
@@ -10215,13 +10648,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>43308</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
       </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
       <c r="E4">
         <v>20</v>
       </c>
@@ -10229,11 +10665,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>43399</v>
       </c>
       <c r="B5" s="18">
+        <v>5</v>
+      </c>
+      <c r="C5" s="18">
         <v>5</v>
       </c>
       <c r="E5">
@@ -10250,6 +10689,9 @@
       <c r="B6" s="1">
         <v>6</v>
       </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
       <c r="E6">
         <v>20</v>
       </c>
@@ -10264,6 +10706,9 @@
       <c r="B7" s="1">
         <v>0</v>
       </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
       <c r="E7">
         <v>20</v>
       </c>
@@ -10278,6 +10723,9 @@
       <c r="B8" s="1">
         <v>0</v>
       </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
       <c r="E8">
         <v>20</v>
       </c>
@@ -10285,7 +10733,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>43761</v>
       </c>
@@ -10321,16 +10769,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.09765625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -10348,13 +10796,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
         <v>43122</v>
       </c>
       <c r="B2" s="12">
         <v>0</v>
       </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
       <c r="E2">
         <v>40</v>
       </c>
@@ -10362,13 +10813,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <v>43214</v>
       </c>
       <c r="B3" s="13">
         <v>0</v>
       </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
       <c r="E3">
         <v>40</v>
       </c>
@@ -10376,13 +10830,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
         <v>43308</v>
       </c>
       <c r="B4" s="13">
         <v>0</v>
       </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
       <c r="E4">
         <v>40</v>
       </c>
@@ -10390,11 +10847,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>43399</v>
       </c>
       <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
         <v>0</v>
       </c>
       <c r="E5">
@@ -10411,6 +10871,9 @@
       <c r="B6" s="1">
         <v>3</v>
       </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
       <c r="E6">
         <v>40</v>
       </c>
@@ -10425,6 +10888,9 @@
       <c r="B7" s="1">
         <v>0</v>
       </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
       <c r="E7">
         <v>40</v>
       </c>
@@ -10439,6 +10905,9 @@
       <c r="B8" s="1">
         <v>0</v>
       </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
       <c r="E8">
         <v>40</v>
       </c>
@@ -10446,7 +10915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>43761</v>
       </c>
